--- a/极睿导出/Result_New.xlsx
+++ b/极睿导出/Result_New.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7200" yWindow="1545" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="自201H2-4_VDL_20200417(10-5145)R" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -956,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,21 +1009,21 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>龙一14</t>
+          <t>龙一１4</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3379.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3379.4</t>
         </is>
       </c>
       <c r="E3" s="0" t="n">
-        <v>103</v>
+        <v>121.4</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -1037,21 +1037,21 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>龙一13</t>
+          <t>龙一１3</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3493.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3493.7</t>
         </is>
       </c>
       <c r="E4" s="0" t="n">
-        <v>38</v>
+        <v>114.3</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
@@ -1065,21 +1065,21 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>龙一12</t>
+          <t>龙一１2</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>3720.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>3720.3</t>
         </is>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1318</v>
+        <v>226.6</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -1093,21 +1093,21 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>龙一11</t>
+          <t>龙一１1</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>3753.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>3753.3</t>
         </is>
       </c>
       <c r="E6" s="0" t="n">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -1121,23 +1121,107 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>龙一12</t>
+          <t>五峰组</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>3826.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>3826.9</t>
         </is>
       </c>
       <c r="E7" s="0" t="n">
-        <v>40</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>页岩气层</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>龙一１1</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>4641.3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4641.3</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>814.4</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>页岩气层</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>龙一１2</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>5073.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5073.1</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>431.8</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>页岩气层</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>龙一１1</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>5196</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5196</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>页岩气层</t>
         </is>
